--- a/emails.xlsx
+++ b/emails.xlsx
@@ -29,17 +29,24 @@
     <t>email</t>
   </si>
   <si>
-    <t>vachelfakher@hotmail.com</t>
+    <t>kaulerrakar@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -61,13 +68,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,7 +359,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -360,11 +370,14 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -29,7 +29,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>kaulerrakar@hotmail.com</t>
+    <t>itengesabalo20@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -24,19 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>itengesabalo20@hotmail.com</t>
+    <t>ortwedkauri@hotmail.com</t>
+  </si>
+  <si>
+    <t>yffdyhia@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,22 +47,40 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,17 +88,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,28 +410,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -24,63 +24,263 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>ortwedkauri@hotmail.com</t>
-  </si>
-  <si>
-    <t>yffdyhia@hotmail.com</t>
+    <t>ahikozebary@hotmail.com</t>
+  </si>
+  <si>
+    <t>f2lnvn1lt@hotmail.com</t>
+  </si>
+  <si>
+    <t>parumaljupko@hotmail.com</t>
+  </si>
+  <si>
+    <t>o4sqncukk0lw0@hotmail.com</t>
+  </si>
+  <si>
+    <t>vachelfakher@hotmail.com</t>
+  </si>
+  <si>
+    <t>k7qj7ad66ipka@hotmail.com</t>
+  </si>
+  <si>
+    <t>rebiszskafe@hotmail.com</t>
+  </si>
+  <si>
+    <t>scireticic@hotmail.com</t>
+  </si>
+  <si>
+    <t>mtinirudila@hotmail.com</t>
+  </si>
+  <si>
+    <t>vilsonnadiya19@hotmail.com</t>
+  </si>
+  <si>
+    <t>ceysuwatini@hotmail.com</t>
+  </si>
+  <si>
+    <t>pnzxy2kgwi@hotmail.com</t>
+  </si>
+  <si>
+    <t>cubi3zetqkbp@hotmail.com</t>
+  </si>
+  <si>
+    <t>nfkbiw7x7nl0c@hotmail.com</t>
+  </si>
+  <si>
+    <t>sach1rqf3@hotmail.com</t>
+  </si>
+  <si>
+    <t>f5ew1kvf5c5t@hotmail.com</t>
+  </si>
+  <si>
+    <t>qc4o666l9@hotmail.com</t>
+  </si>
+  <si>
+    <t>cwswoh2oycyj@hotmail.com</t>
+  </si>
+  <si>
+    <t>hwnkv1xuzl@hotmail.com</t>
+  </si>
+  <si>
+    <t>x9pixxp6c@hotmail.com</t>
+  </si>
+  <si>
+    <t>dbjn77rq1u@hotmail.com</t>
+  </si>
+  <si>
+    <t>yrn0vb25tz@hotmail.com</t>
+  </si>
+  <si>
+    <t>x077kp12r@hotmail.com</t>
+  </si>
+  <si>
+    <t>qhdx0l7plsq@hotmail.com</t>
+  </si>
+  <si>
+    <t>sk8ozghjiuen8@hotmail.com</t>
+  </si>
+  <si>
+    <t>pos6zskw9z2cx@hotmail.com</t>
+  </si>
+  <si>
+    <t>tuwrr9zzjvwgm@hotmail.com</t>
+  </si>
+  <si>
+    <t>u1j2e8h388m7@hotmail.com</t>
+  </si>
+  <si>
+    <t>rhwzhs3zgenif@hotmail.com</t>
+  </si>
+  <si>
+    <t>w58buowb63vg@hotmail.com</t>
+  </si>
+  <si>
+    <t>pn5y13khw@hotmail.com</t>
+  </si>
+  <si>
+    <t>wk7doy75oc30@hotmail.com</t>
+  </si>
+  <si>
+    <t>awc8awpfnf9@hotmail.com</t>
+  </si>
+  <si>
+    <t>cg39119xs7@hotmail.com</t>
+  </si>
+  <si>
+    <t>zwvpn8jrp@hotmail.com</t>
+  </si>
+  <si>
+    <t>hg5z17o83pbdr@hotmail.com</t>
+  </si>
+  <si>
+    <t>x17bxl9hf@hotmail.com</t>
+  </si>
+  <si>
+    <t>eiqr9gsg9@hotmail.com</t>
+  </si>
+  <si>
+    <t>p4dvp00jf@hotmail.com</t>
+  </si>
+  <si>
+    <t>rmkevb9zcn7@hotmail.com</t>
+  </si>
+  <si>
+    <t>qmjmkkk8bil@hotmail.com</t>
+  </si>
+  <si>
+    <t>t0v7a80j9@hotmail.com</t>
+  </si>
+  <si>
+    <t>n97s5x4he3bg@hotmail.com</t>
+  </si>
+  <si>
+    <t>obkikc0anwq@hotmail.com</t>
+  </si>
+  <si>
+    <t>wwn5ae6jstn@hotmail.com</t>
+  </si>
+  <si>
+    <t>mfdpfgkuq2@hotmail.com</t>
+  </si>
+  <si>
+    <t>g1qosu5nzwz1@hotmail.com</t>
+  </si>
+  <si>
+    <t>d4q5nhoqbj@hotmail.com</t>
+  </si>
+  <si>
+    <t>j2052y2z7y10@hotmail.com</t>
+  </si>
+  <si>
+    <t>o985ler8rv@hotmail.com</t>
+  </si>
+  <si>
+    <t>np3e9m06qn@hotmail.com</t>
+  </si>
+  <si>
+    <t>ua24dn7n7ogwj@hotmail.com</t>
+  </si>
+  <si>
+    <t>vh7jq9wfwmx@hotmail.com</t>
+  </si>
+  <si>
+    <t>i99xu41d0td7@hotmail.com</t>
+  </si>
+  <si>
+    <t>sm2kohn72@hotmail.com</t>
+  </si>
+  <si>
+    <t>ep4ffz1wt@hotmail.com</t>
+  </si>
+  <si>
+    <t>f3mgpgy79@hotmail.com</t>
+  </si>
+  <si>
+    <t>nfuz7y2n3b8@hotmail.com</t>
+  </si>
+  <si>
+    <t>vjzubxmesc@hotmail.com</t>
+  </si>
+  <si>
+    <t>hxpqjvhrue@hotmail.com</t>
+  </si>
+  <si>
+    <t>e38u1uu5as5gu@hotmail.com</t>
+  </si>
+  <si>
+    <t>aqv7ae235hay@hotmail.com</t>
+  </si>
+  <si>
+    <t>ug6z0rp79@hotmail.com</t>
+  </si>
+  <si>
+    <t>tmxkwckvqqe@hotmail.com</t>
+  </si>
+  <si>
+    <t>kdfcwl2anje@hotmail.com</t>
+  </si>
+  <si>
+    <t>wotahvfihgcm@hotmail.com</t>
+  </si>
+  <si>
+    <t>galupanorib@hotmail.com</t>
+  </si>
+  <si>
+    <t>moshkifaroq7@hotmail.com</t>
+  </si>
+  <si>
+    <t>olamostoel@hotmail.com</t>
+  </si>
+  <si>
+    <t>chimsedannu6@hotmail.com</t>
+  </si>
+  <si>
+    <t>yunidanobuyo5@hotmail.com</t>
+  </si>
+  <si>
+    <t>unzagaraban@hotmail.com</t>
+  </si>
+  <si>
+    <t>dujmaavani@hotmail.com</t>
+  </si>
+  <si>
+    <t>lenoirgewang@hotmail.com</t>
+  </si>
+  <si>
+    <t>ngubsmejis@hotmail.com</t>
+  </si>
+  <si>
+    <t>julexydaurer@hotmail.com</t>
+  </si>
+  <si>
+    <t>yijinfaried95@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -88,48 +288,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -421,19 +585,399 @@
     <col min="1" max="1" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
